--- a/templates/student_template.xlsx
+++ b/templates/student_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="学生信息" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="学生信息" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -591,11 +591,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/student_template.xlsx
+++ b/templates/student_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="学生信息" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="学生信息" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -591,11 +591,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/student_template.xlsx
+++ b/templates/student_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="学生信息" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="学生信息" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -591,11 +591,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/student_template.xlsx
+++ b/templates/student_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="学生信息" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="学生信息" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -591,11 +591,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/student_template.xlsx
+++ b/templates/student_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="学生信息" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="学生信息" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/templates/student_template.xlsx
+++ b/templates/student_template.xlsx
@@ -592,10 +592,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/student_template.xlsx
+++ b/templates/student_template.xlsx
@@ -591,11 +591,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
